--- a/data/trans_bre/P25_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>-19,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>-21,31%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24,38%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>62,9%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 9,86</t>
+          <t>-14,9; 6,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 4,34</t>
+          <t>-10,46; 3,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 8,88</t>
+          <t>-2,24; 9,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 8,11</t>
+          <t>-0,64; 18,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 54,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 32,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 78,69</t>
+          <t>-51,23; 36,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 55,85</t>
+          <t>-48,09; 24,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-13,16; 82,33</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 192,36</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,01%</t>
+          <t>-28,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-57,19%</t>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,55%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-33,83%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 2,45</t>
+          <t>-5,14; 1,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,49</t>
+          <t>-1,91; 3,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 1,73</t>
+          <t>-2,94; 1,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -2,07</t>
+          <t>-6,71; 1,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 59,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 77,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 39,85</t>
+          <t>-63,41; 38,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,43; -24,58</t>
+          <t>-36,33; 106,02</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-43,63; 41,58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-66,09; 32,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-63,71%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-62,59%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-42,82%</t>
+          <t>-44,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-77,77%</t>
+          <t>-66,11%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-42,16%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-45,91%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,08; -0,54</t>
+          <t>-4,43; 0,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; -0,57</t>
+          <t>-5,8; -0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,17</t>
+          <t>-3,84; 0,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -1,71</t>
+          <t>-5,77; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-87,58; -7,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,87; -6,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,82; 8,63</t>
+          <t>-81,66; 60,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-95,39; -16,81</t>
+          <t>-88,1; -14,46</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-69,7; 12,39</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-79,57; 37,6</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>38,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,71%</t>
+          <t>38,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,47</t>
+          <t>-0,86; 7,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,58</t>
+          <t>-1,88; 7,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 0,82</t>
+          <t>-4,99; 5,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 35,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 26,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 36,79</t>
+          <t>-9,54; 113,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,27; 7,71</t>
+          <t>-19,19; 145,22</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-39,17; 72,7</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-6,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 2,34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 1,56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 2,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 3,04</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 32,06</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-27,9; 26,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-16,82; 40,45</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-20,56; 38,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,25</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-19,6%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-21,31%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>24,38%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>62,9%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-4.279220134209466</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-3.102783490997438</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.978490294586981</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.68107547367285</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.2009128531777561</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1846197441516112</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2787723038761186</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7739056906512565</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-14,9; 6,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,46; 3,06</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 9,72</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 18,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-51,23; 36,45</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-48,09; 24,55</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-13,16; 82,33</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-6,3; 192,36</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.03592371500062</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.536689810733263</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.836513822123629</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.539382639576345</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.5237225625740004</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.464108196369861</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1176067734396862</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.02784588842995282</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.890434109098197</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.658142981826225</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.11974092555752</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>20.76712524699781</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.3610804056470518</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2909525442355139</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8911351109517752</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.039969048044735</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,65</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-28,8%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,46%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-7,55%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-33,83%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 1,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 3,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 1,82</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 1,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-63,41; 38,52</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,33; 106,02</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-43,63; 41,58</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-66,09; 32,86</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-1.93306838122456</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6677697287511858</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.5449958953818078</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.861563037535327</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.3112365368692754</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1589419441602867</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.09608347592391163</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.3680840514605896</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,79</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-44,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-66,11%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-42,16%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-45,91%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.168622649486195</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.910947475342246</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.050374585046555</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.7763892785738</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.6470052512788745</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3597319922198062</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4397633579086108</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.6768949899433028</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 0,76</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; -0,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,84; 0,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 0,82</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-81,66; 60,57</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-88,1; -14,46</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-69,7; 12,39</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-79,57; 37,6</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.249859034414211</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.199154692776459</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.746292188850991</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.2721707403895</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.3707279927956302</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.053834477824894</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3923522873041673</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.2527850082939572</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>38,26%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>38,17%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.390899334425446</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.095681311538777</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.829686754975602</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.406632413480612</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.4159150931649306</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6591025995450508</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.4304567912802857</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4697113160395678</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 7,44</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 7,33</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 5,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-9,54; 113,4</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-19,19; 145,22</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-39,17; 72,7</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.090835226232092</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.68851825095681</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.931211725313777</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-5.669421152881057</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.8123343465916656</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8794112148918969</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7041799839998145</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7976326569716762</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.06875094675962</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.7049548550380526</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.09622679601527545</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7354336254438025</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.7818157283865937</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.1213374144762974</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1192206333780228</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.3347761660063841</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-6,2%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7,14%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 2,34</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 1,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 2,56</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 3,04</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-22,41; 32,06</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-27,9; 26,41</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-16,82; 40,45</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-20,56; 38,69</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.757979120309725</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.123443390281097</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5432554718808463</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.059079947570735</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.230389247378486</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1623860250480036</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.07713586246847147</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.132701501256634</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-4.420982450323133</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.322888152960238</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.33257446879816</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.862719116681116</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.4817106779933072</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4111810406650923</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1617688924232221</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1891392719393203</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.7666702239795419</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7583791555863172</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.562058063468191</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.954556371721583</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.1205415287708444</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1422263893593899</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4189243831236953</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.592373974658978</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
